--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3375.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3375.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.24594988812386</v>
+        <v>4.535914897918701</v>
       </c>
       <c r="B1">
-        <v>2.60179195409564</v>
+        <v>2.637543916702271</v>
       </c>
       <c r="C1">
-        <v>4.232864682233063</v>
+        <v>1.811471343040466</v>
       </c>
       <c r="D1">
-        <v>3.399762495736374</v>
+        <v>1.61442756652832</v>
       </c>
       <c r="E1">
-        <v>1.157445491769413</v>
+        <v>1.54661762714386</v>
       </c>
     </row>
   </sheetData>
